--- a/SourceCode/2024/May 2024/Bhavya/Task 21/input.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task 21/input.xlsx
@@ -396,20 +396,32 @@
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
         <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SourceCode/2024/May 2024/Bhavya/Task 21/input.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task 21/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavy\OneDrive\Desktop\RPA-Developer-in-30-Days\SourceCode\2024\May 2024\Bhavya\Task 21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74E8E6A-CB30-4A82-A583-F0247B3578AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2409AE79-689E-478E-82C1-FF66FE521ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>City Names</x:t>
   </x:si>
@@ -37,13 +37,25 @@
     <x:t>Hyderabad temperature</x:t>
   </x:si>
   <x:si>
+    <x:t>9334°F°F°C    °C</x:t>
+  </x:si>
+  <x:si>
     <x:t>New Delhi temperature</x:t>
   </x:si>
   <x:si>
+    <x:t>10339°F°F°C    °C</x:t>
+  </x:si>
+  <x:si>
     <x:t>Kolkata temperature</x:t>
   </x:si>
   <x:si>
+    <x:t>8731°F°F°C    °C</x:t>
+  </x:si>
+  <x:si>
     <x:t>Chennai temperature</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9133°F°F°C    °C</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -376,7 +388,7 @@
   <x:dimension ref="A1:B5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B7" sqref="B7"/>
+      <x:selection activeCell="E9" sqref="E9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +396,7 @@
     <x:col min="1" max="1" width="20.332031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -392,36 +404,36 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SourceCode/2024/May 2024/Bhavya/Task 21/input.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task 21/input.xlsx
@@ -37,7 +37,7 @@
     <x:t>Hyderabad temperature</x:t>
   </x:si>
   <x:si>
-    <x:t>9334°F°F°C    °C</x:t>
+    <x:t>8429°F°F°C    °C</x:t>
   </x:si>
   <x:si>
     <x:t>New Delhi temperature</x:t>

--- a/SourceCode/2024/May 2024/Bhavya/Task 21/input.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task 21/input.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <x:si>
     <x:t>City Names</x:t>
   </x:si>
@@ -37,25 +37,22 @@
     <x:t>Hyderabad temperature</x:t>
   </x:si>
   <x:si>
-    <x:t>8429°F°F°C    °C</x:t>
+    <x:t>85</x:t>
   </x:si>
   <x:si>
     <x:t>New Delhi temperature</x:t>
   </x:si>
   <x:si>
-    <x:t>10339°F°F°C    °C</x:t>
+    <x:t>94</x:t>
   </x:si>
   <x:si>
     <x:t>Kolkata temperature</x:t>
   </x:si>
   <x:si>
-    <x:t>8731°F°F°C    °C</x:t>
+    <x:t>89</x:t>
   </x:si>
   <x:si>
     <x:t>Chennai temperature</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9133°F°F°C    °C</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -433,7 +430,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
